--- a/data/income_statement/3digits/total/089_IS_TOTAL.xlsx
+++ b/data/income_statement/3digits/total/089_IS_TOTAL.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>089-Mining and quarrying n.e.c.</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>089-Mining and quarrying n.e.c.</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,14 +841,19 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
         <v>1028963.65993</v>
@@ -962,37 +868,42 @@
         <v>2030579.78199</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>2573845.61262</v>
+        <v>2574085.63321</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>2765142.80514</v>
+        <v>2784612.17163</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>3306712.32892</v>
+        <v>3344358.57829</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>3359868.94812</v>
+        <v>3359886.49702</v>
       </c>
       <c r="K5" s="47" t="n">
         <v>4618745.28225</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>6131623.438099999</v>
+        <v>6135927.114</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>6128731.716410001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>6160277.11998</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>6668027.722</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
         <v>656995.62613</v>
       </c>
       <c r="D6" s="48" t="n">
-        <v>866205.3329200001</v>
+        <v>866205.33292</v>
       </c>
       <c r="E6" s="48" t="n">
         <v>1055093.12933</v>
@@ -1001,55 +912,60 @@
         <v>1309363.08958</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>1733229.73353</v>
+        <v>1733469.75412</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>1867512.19143</v>
+        <v>1886313.56433</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>2294826.47551</v>
+        <v>2300922.48215</v>
       </c>
       <c r="J6" s="48" t="n">
         <v>2208444.25308</v>
       </c>
       <c r="K6" s="48" t="n">
-        <v>3129608.499210001</v>
+        <v>3129608.49921</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>3732724.53271</v>
+        <v>3737022.0451</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>3715643.1877</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>3736802.44793</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>4305540.553</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
-        <v>348990.72442</v>
+        <v>348990.7244200001</v>
       </c>
       <c r="D7" s="48" t="n">
-        <v>739614.6874100001</v>
+        <v>739614.68741</v>
       </c>
       <c r="E7" s="48" t="n">
         <v>529333.48931</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>660101.46883</v>
+        <v>660101.4688299999</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>776656.9355599999</v>
+        <v>776656.93556</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>839059.7519200001</v>
+        <v>839673.0639399999</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>944425.0780099999</v>
+        <v>975645.32074</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>1044684.33777</v>
+        <v>1044694.33777</v>
       </c>
       <c r="K7" s="48" t="n">
         <v>1361341.32706</v>
@@ -1058,13 +974,18 @@
         <v>2278679.28516</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>2280092.71611</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>2290308.99088</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>2217019.221</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
         <v>22977.30938</v>
@@ -1082,28 +1003,33 @@
         <v>63958.94353</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>58570.86179</v>
+        <v>58625.54335999999</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>67460.77539999998</v>
+        <v>67790.77540000001</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>106740.35727</v>
+        <v>106747.90617</v>
       </c>
       <c r="K8" s="48" t="n">
         <v>127795.45598</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>120219.62023</v>
+        <v>120225.78374</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>132995.8126</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>133165.68117</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>145467.948</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
         <v>18028.24485</v>
@@ -1121,40 +1047,45 @@
         <v>42170.82263</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>56046.50378</v>
+        <v>56046.50377999999</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>45518.0309</v>
+        <v>45750.309</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>46046.85123</v>
+        <v>46046.85123000001</v>
       </c>
       <c r="K9" s="47" t="n">
-        <v>64353.70579000001</v>
+        <v>64353.70579</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>119065.40291</v>
+        <v>119172.40291</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>115030.39472</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>115040.53263</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>163675.469</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
         <v>5944.472690000001</v>
       </c>
       <c r="D10" s="48" t="n">
-        <v>5122.185739999999</v>
+        <v>5122.18574</v>
       </c>
       <c r="E10" s="48" t="n">
         <v>4034.96457</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>5318.877419999999</v>
+        <v>5318.87742</v>
       </c>
       <c r="G10" s="48" t="n">
         <v>6571.19834</v>
@@ -1163,7 +1094,7 @@
         <v>10939.95659</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>8306.12868</v>
+        <v>8322.874809999999</v>
       </c>
       <c r="J10" s="48" t="n">
         <v>16171.99</v>
@@ -1172,16 +1103,21 @@
         <v>23569.50576</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>23799.60841</v>
+        <v>23906.60841</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>44904.36922</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>44909.79513</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>73131.541</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
         <v>2662.04521</v>
@@ -1193,7 +1129,7 @@
         <v>2874.71665</v>
       </c>
       <c r="F11" s="48" t="n">
-        <v>9139.683760000002</v>
+        <v>9139.68376</v>
       </c>
       <c r="G11" s="48" t="n">
         <v>11919.74158</v>
@@ -1202,28 +1138,33 @@
         <v>10885.60429</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>7475.02244</v>
+        <v>7497.17424</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>7951.977140000001</v>
+        <v>7951.97714</v>
       </c>
       <c r="K11" s="48" t="n">
-        <v>8359.313489999999</v>
+        <v>8359.31349</v>
       </c>
       <c r="L11" s="48" t="n">
         <v>20040.40608</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>26178.52801999999</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>26183.24002</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>45581.96</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
-        <v>9421.726949999998</v>
+        <v>9421.72695</v>
       </c>
       <c r="D12" s="48" t="n">
         <v>14085.40927</v>
@@ -1241,7 +1182,7 @@
         <v>34220.9429</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>29736.87978</v>
+        <v>29930.25995</v>
       </c>
       <c r="J12" s="48" t="n">
         <v>21922.88409</v>
@@ -1253,13 +1194,18 @@
         <v>75225.38842</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>43947.49748</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>43947.49748000001</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>44961.968</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
         <v>1010935.41508</v>
@@ -1274,31 +1220,36 @@
         <v>1998070.51</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>2531674.78999</v>
+        <v>2531914.81058</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>2709096.30136</v>
+        <v>2728565.66785</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>3261194.29802</v>
+        <v>3298608.26929</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>3313822.09689</v>
+        <v>3313839.64579</v>
       </c>
       <c r="K13" s="47" t="n">
         <v>4554391.57646</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>6012558.035189999</v>
+        <v>6016754.71109</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>6013701.32169</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>6045236.587350001</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>6504352.253</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
         <v>733776.03455</v>
@@ -1313,13 +1264,13 @@
         <v>1482200.0067</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>1845000.4518</v>
+        <v>1845138.16027</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>2018008.74149</v>
+        <v>2035590.11468</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>2463834.54398</v>
+        <v>2484515.97712</v>
       </c>
       <c r="J14" s="47" t="n">
         <v>2337564.71979</v>
@@ -1328,22 +1279,27 @@
         <v>3261896.69991</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>4034594.93522</v>
+        <v>4037696.55302</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>4041004.34567</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>4068838.58904</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>4504437.325</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
         <v>438137.34548</v>
       </c>
       <c r="D15" s="48" t="n">
-        <v>846474.55493</v>
+        <v>846474.5549300001</v>
       </c>
       <c r="E15" s="48" t="n">
         <v>706157.88121</v>
@@ -1352,13 +1308,13 @@
         <v>931715.5575</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>1175642.58258</v>
+        <v>1175733.86438</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>1290444.25635</v>
+        <v>1291341.29962</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>1416468.73788</v>
+        <v>1433881.92485</v>
       </c>
       <c r="J15" s="48" t="n">
         <v>1593775.04059</v>
@@ -1367,16 +1323,21 @@
         <v>2059169.47416</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>2639655.59309</v>
+        <v>2639963.01845</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>2704224.33355</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>2709888.66304</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>2703203.987</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
         <v>195316.61605</v>
@@ -1394,10 +1355,10 @@
         <v>346695.35286</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>409742.06359</v>
+        <v>418045.2720700001</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>722066.6330499999</v>
+        <v>724544.66992</v>
       </c>
       <c r="J16" s="48" t="n">
         <v>405574.38901</v>
@@ -1406,19 +1367,24 @@
         <v>595998.5881700001</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>680796.1334800002</v>
+        <v>682470.59846</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>757164.79338</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>769676.0047899999</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>912755.282</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
-        <v>98040.85566999999</v>
+        <v>98040.85567</v>
       </c>
       <c r="D17" s="48" t="n">
         <v>202600.58978</v>
@@ -1430,31 +1396,36 @@
         <v>170376.8523</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>311024.20785</v>
+        <v>311070.63452</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>308285.29661</v>
+        <v>316666.41805</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>310288.38533</v>
+        <v>311078.59463</v>
       </c>
       <c r="J17" s="48" t="n">
         <v>302276.53604</v>
       </c>
       <c r="K17" s="48" t="n">
-        <v>569772.6866</v>
+        <v>569772.6865999999</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>653934.8138400001</v>
+        <v>655054.5412999999</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>528850.39534</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>538509.0978099999</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>854785.404</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
         <v>2281.21735</v>
@@ -1478,7 +1449,7 @@
         <v>15010.78772</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>35938.75415000001</v>
+        <v>35938.75415</v>
       </c>
       <c r="K18" s="48" t="n">
         <v>36955.95098</v>
@@ -1487,13 +1458,18 @@
         <v>60208.39481</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>50764.8234</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>50764.82340000001</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>33692.652</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
         <v>277159.38053</v>
@@ -1505,73 +1481,83 @@
         <v>502244.05324</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>515870.5032999999</v>
+        <v>515870.5033</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>686674.33819</v>
+        <v>686776.6503099999</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>691087.55987</v>
+        <v>692975.5531700001</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>797359.7540399999</v>
+        <v>814092.2921699999</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>976257.3770999999</v>
+        <v>976274.926</v>
       </c>
       <c r="K19" s="47" t="n">
         <v>1292494.87655</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>1977963.09997</v>
+        <v>1979058.15807</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>1972696.97602</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>1976397.99831</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>1999914.928</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
         <v>212685.23968</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>280595.5925200001</v>
+        <v>280595.59252</v>
       </c>
       <c r="E20" s="47" t="n">
         <v>342985.70959</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>438902.93894</v>
+        <v>438902.9389400001</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>525806.03463</v>
+        <v>525863.5284299999</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>549511.13401</v>
+        <v>550733.94264</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>658374.08958</v>
+        <v>673779.2349</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>788890.92333</v>
+        <v>788909.6184200001</v>
       </c>
       <c r="K20" s="47" t="n">
-        <v>825099.89382</v>
+        <v>825099.8938199999</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>921855.4324399999</v>
+        <v>922333.53243</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>1068723.68743</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>1072791.75407</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>1084189.326</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
         <v>4011.58802</v>
@@ -1586,16 +1572,16 @@
         <v>15088.64331</v>
       </c>
       <c r="G21" s="48" t="n">
-        <v>8756.824970000001</v>
+        <v>8756.82497</v>
       </c>
       <c r="H21" s="48" t="n">
-        <v>6665.11523</v>
+        <v>6665.115229999999</v>
       </c>
       <c r="I21" s="48" t="n">
-        <v>6738.82697</v>
+        <v>6972.72996</v>
       </c>
       <c r="J21" s="48" t="n">
-        <v>16066.41101</v>
+        <v>16066.50551</v>
       </c>
       <c r="K21" s="48" t="n">
         <v>13703.73112</v>
@@ -1604,16 +1590,21 @@
         <v>15528.70517</v>
       </c>
       <c r="M21" s="48" t="n">
-        <v>12197.74518</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>12379.41522</v>
+      </c>
+      <c r="N21" s="48" t="n">
+        <v>11246.885</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
-        <v>95892.52817999999</v>
+        <v>95892.52818000001</v>
       </c>
       <c r="D22" s="48" t="n">
         <v>148881.96301</v>
@@ -1631,25 +1622,30 @@
         <v>272714.28343</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>329024.60981</v>
+        <v>340164.99506</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>370507.94321</v>
+        <v>370507.9432100001</v>
       </c>
       <c r="K22" s="48" t="n">
         <v>485375.20397</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>553554.8765899999</v>
+        <v>553555.34269</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>634491.33852</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>635264.9083199999</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>664220.041</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
         <v>112781.12348</v>
@@ -1664,34 +1660,39 @@
         <v>203025.49889</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>242844.23876</v>
+        <v>242901.73256</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>270131.73535</v>
+        <v>271354.54398</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>322610.6527999999</v>
+        <v>326641.50988</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>402316.56911</v>
+        <v>402335.1697</v>
       </c>
       <c r="K23" s="48" t="n">
         <v>326020.95873</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>352771.85068</v>
+        <v>353249.48457</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>422034.60373</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>425147.43053</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>408722.4</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
-        <v>64474.14085000001</v>
+        <v>64474.14085</v>
       </c>
       <c r="D24" s="47" t="n">
         <v>65519.61226000001</v>
@@ -1703,31 +1704,36 @@
         <v>76967.56436</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>160868.30356</v>
+        <v>160913.12188</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>141576.42586</v>
+        <v>142241.61053</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>138985.66446</v>
+        <v>140313.05727</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>187366.45377</v>
+        <v>187365.30758</v>
       </c>
       <c r="K24" s="47" t="n">
-        <v>467394.98273</v>
+        <v>467394.9827299999</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>1056107.66753</v>
+        <v>1056724.62564</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>903973.28859</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>903606.24424</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>915725.602</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
         <v>106661.73664</v>
@@ -1745,28 +1751,33 @@
         <v>187261.8533</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>424660.2052</v>
+        <v>424657.73348</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>1315656.71454</v>
+        <v>1322381.04671</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>257167.44304</v>
+        <v>257166.91815</v>
       </c>
       <c r="K25" s="47" t="n">
         <v>352673.25128</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>824515.31545</v>
+        <v>825611.5562200001</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>541266.26437</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>541294.3997999999</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>689729.673</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
         <v>2761.97596</v>
@@ -1787,7 +1798,7 @@
         <v>51359.54686</v>
       </c>
       <c r="I26" s="48" t="n">
-        <v>3663.92291</v>
+        <v>3738.77489</v>
       </c>
       <c r="J26" s="48" t="n">
         <v>3361.47844</v>
@@ -1796,16 +1807,21 @@
         <v>6776.33532</v>
       </c>
       <c r="L26" s="48" t="n">
-        <v>22917.27822</v>
+        <v>24142.27822</v>
       </c>
       <c r="M26" s="48" t="n">
         <v>8396.78435</v>
       </c>
-    </row>
-    <row r="27" spans="1:13">
+      <c r="N26" s="48" t="n">
+        <v>13555.237</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>30876.73775</v>
@@ -1823,7 +1839,7 @@
         <v>2053.01448</v>
       </c>
       <c r="H27" s="48" t="n">
-        <v>3932.419129999999</v>
+        <v>3932.41913</v>
       </c>
       <c r="I27" s="48" t="n">
         <v>28.687</v>
@@ -1840,17 +1856,22 @@
       <c r="M27" s="48" t="n">
         <v>32225.00048</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27" s="48" t="n">
+        <v>22.695</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
-        <v>8092.31418</v>
+        <v>8092.314179999999</v>
       </c>
       <c r="D28" s="48" t="n">
-        <v>6593.65781</v>
+        <v>6593.657810000001</v>
       </c>
       <c r="E28" s="48" t="n">
         <v>10975.1682</v>
@@ -1862,28 +1883,33 @@
         <v>18068.3385</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>23115.88899</v>
+        <v>23126.12566</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>22394.5041</v>
+        <v>23016.49355</v>
       </c>
       <c r="J28" s="48" t="n">
         <v>31985.67865</v>
       </c>
       <c r="K28" s="48" t="n">
-        <v>48622.49372000001</v>
+        <v>48622.49372</v>
       </c>
       <c r="L28" s="48" t="n">
         <v>96419.22623</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>124728.48515</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>124752.86572</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>101858.431</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
         <v>1440.30867</v>
@@ -1904,7 +1930,7 @@
         <v>1012.49548</v>
       </c>
       <c r="I29" s="48" t="n">
-        <v>837.2198500000001</v>
+        <v>848.24448</v>
       </c>
       <c r="J29" s="48" t="n">
         <v>7840.58251</v>
@@ -1918,11 +1944,16 @@
       <c r="M29" s="48" t="n">
         <v>4252.886340000001</v>
       </c>
-    </row>
-    <row r="30" spans="1:13">
+      <c r="N29" s="48" t="n">
+        <v>1430.45</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
         <v>684.9449299999999</v>
@@ -1934,7 +1965,7 @@
         <v>1015.86224</v>
       </c>
       <c r="F30" s="48" t="n">
-        <v>726.9372600000002</v>
+        <v>726.93726</v>
       </c>
       <c r="G30" s="48" t="n">
         <v>1318.92774</v>
@@ -1943,7 +1974,7 @@
         <v>3662.25541</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>1810.94562</v>
+        <v>2201.25718</v>
       </c>
       <c r="J30" s="48" t="n">
         <v>1065.42807</v>
@@ -1957,11 +1988,16 @@
       <c r="M30" s="48" t="n">
         <v>2491.91484</v>
       </c>
-    </row>
-    <row r="31" spans="1:13">
+      <c r="N30" s="48" t="n">
+        <v>7642.338</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
         <v>108.1817</v>
@@ -1970,16 +2006,16 @@
         <v>5313.99686</v>
       </c>
       <c r="E31" s="48" t="n">
-        <v>78.10257</v>
+        <v>78.10256999999999</v>
       </c>
       <c r="F31" s="48" t="n">
-        <v>825.3008900000001</v>
+        <v>825.30089</v>
       </c>
       <c r="G31" s="48" t="n">
         <v>252.92868</v>
       </c>
       <c r="H31" s="48" t="n">
-        <v>8369.501399999999</v>
+        <v>8388.319930000001</v>
       </c>
       <c r="I31" s="48" t="n">
         <v>3011.75672</v>
@@ -1996,11 +2032,16 @@
       <c r="M31" s="48" t="n">
         <v>21237.8573</v>
       </c>
-    </row>
-    <row r="32" spans="1:13">
+      <c r="N31" s="48" t="n">
+        <v>17725.297</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
         <v>50790.98647</v>
@@ -2009,19 +2050,19 @@
         <v>49964.39897</v>
       </c>
       <c r="E32" s="48" t="n">
-        <v>56431.32355</v>
+        <v>56431.32354999999</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>75823.03801</v>
+        <v>75823.03800999999</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>78821.00100999999</v>
+        <v>78821.00101000001</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>299409.92339</v>
+        <v>299438.3385900001</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>1254242.6251</v>
+        <v>1259745.28055</v>
       </c>
       <c r="J32" s="48" t="n">
         <v>154420.96767</v>
@@ -2033,13 +2074,18 @@
         <v>568247.84376</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>274040.7202999999</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>274041.62647</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>464636.196</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>10.03408</v>
@@ -2074,11 +2120,16 @@
       <c r="M33" s="48" t="n">
         <v>1775.75215</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>1546.642</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>5.98558</v>
@@ -2113,11 +2164,16 @@
       <c r="M34" s="48" t="n">
         <v>106.02774</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
         <v>11890.26732</v>
@@ -2132,34 +2188,39 @@
         <v>33313.28379</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>29814.80628</v>
+        <v>29814.80627999999</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>31807.40221</v>
+        <v>31747.46009</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>28068.0088</v>
+        <v>28191.5079</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>28289.10461</v>
+        <v>28288.57972</v>
       </c>
       <c r="K35" s="48" t="n">
-        <v>41235.62507</v>
+        <v>41235.62507000001</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>49269.74939</v>
+        <v>49140.99015999999</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>72010.83572</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>72013.68441</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>81312.387</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
-        <v>69901.86911</v>
+        <v>69901.86911000001</v>
       </c>
       <c r="D36" s="47" t="n">
         <v>54159.9317</v>
@@ -2174,31 +2235,36 @@
         <v>125253.53663</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>326408.72779</v>
+        <v>326420.84013</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>1260772.68905</v>
+        <v>1266495.7365</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>230980.49913</v>
+        <v>230980.68156</v>
       </c>
       <c r="K36" s="47" t="n">
-        <v>313267.4743599999</v>
+        <v>313267.47436</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>872763.3188900001</v>
+        <v>872763.31889</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>382510.74393</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>382512.97211</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>523764.15</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
-        <v>2853.69046</v>
+        <v>2853.690459999999</v>
       </c>
       <c r="D37" s="48" t="n">
         <v>76.1169</v>
@@ -2210,7 +2276,7 @@
         <v>3949.35328</v>
       </c>
       <c r="G37" s="48" t="n">
-        <v>8878.51604</v>
+        <v>8878.516039999999</v>
       </c>
       <c r="H37" s="48" t="n">
         <v>8821.434150000001</v>
@@ -2225,16 +2291,21 @@
         <v>9986.49756</v>
       </c>
       <c r="L37" s="48" t="n">
-        <v>2942.245080000001</v>
+        <v>2942.24508</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>3870.122139999999</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>3870.12214</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>767.414</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
         <v>3684.32791</v>
@@ -2246,7 +2317,7 @@
         <v>4144.86983</v>
       </c>
       <c r="F38" s="48" t="n">
-        <v>38089.02068000001</v>
+        <v>38089.02068</v>
       </c>
       <c r="G38" s="48" t="n">
         <v>4581.78567</v>
@@ -2264,19 +2335,24 @@
         <v>15345.52382</v>
       </c>
       <c r="L38" s="48" t="n">
-        <v>34451.00576</v>
+        <v>34451.00576000001</v>
       </c>
       <c r="M38" s="48" t="n">
         <v>16806.3248</v>
       </c>
-    </row>
-    <row r="39" spans="1:13">
+      <c r="N38" s="48" t="n">
+        <v>8319.663</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
-        <v>38.93607000000001</v>
+        <v>38.93607</v>
       </c>
       <c r="D39" s="48" t="n">
         <v>94.34</v>
@@ -2291,7 +2367,7 @@
         <v>282.8752</v>
       </c>
       <c r="H39" s="48" t="n">
-        <v>2837.67278</v>
+        <v>2849.51214</v>
       </c>
       <c r="I39" s="48" t="n">
         <v>194.59553</v>
@@ -2308,11 +2384,16 @@
       <c r="M39" s="48" t="n">
         <v>0.23239</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="N39" s="48" t="n">
+        <v>54.616</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
         <v>54656.69574</v>
@@ -2330,10 +2411,10 @@
         <v>101048.41911</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>285821.29641</v>
+        <v>285821.56939</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>1217955.02288</v>
+        <v>1223676.44337</v>
       </c>
       <c r="J40" s="48" t="n">
         <v>163402.90464</v>
@@ -2345,13 +2426,18 @@
         <v>772510.5667000001</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>302035.45405</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>302037.1638</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>426829.996</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>258.5125</v>
@@ -2386,11 +2472,16 @@
       <c r="M41" s="48" t="n">
         <v>1579.37083</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>1495.083</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>0.39206</v>
@@ -2425,17 +2516,22 @@
       <c r="M42" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
         <v>8409.314370000002</v>
       </c>
       <c r="D43" s="48" t="n">
-        <v>9395.43924</v>
+        <v>9395.439239999998</v>
       </c>
       <c r="E43" s="48" t="n">
         <v>15734.67782</v>
@@ -2450,10 +2546,10 @@
         <v>19315.72747</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>23809.81695</v>
+        <v>23811.44391</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>40574.33811</v>
+        <v>40574.52054</v>
       </c>
       <c r="K43" s="48" t="n">
         <v>35351.13478</v>
@@ -2462,16 +2558,21 @@
         <v>60167.47648999999</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>58219.23972</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>58219.75815000001</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>86297.378</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
-        <v>53005.35843</v>
+        <v>53005.35842999999</v>
       </c>
       <c r="D44" s="47" t="n">
         <v>36544.65695</v>
@@ -2483,13 +2584,13 @@
         <v>73669.75064</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>157103.87863</v>
+        <v>157104.26228</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>115632.01764</v>
+        <v>115812.01217</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>168507.3663</v>
+        <v>169410.81926</v>
       </c>
       <c r="J44" s="47" t="n">
         <v>171028.15185</v>
@@ -2498,16 +2599,21 @@
         <v>252555.29172</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>434553.30042</v>
+        <v>434623.77407</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>415721.45873</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>416170.99804</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>401784.375</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
         <v>47761.23543</v>
@@ -2522,13 +2628,13 @@
         <v>67075.94151</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>128546.39014</v>
+        <v>128546.77379</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>108935.42345</v>
+        <v>109115.41798</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>163610.66644</v>
+        <v>164514.1194</v>
       </c>
       <c r="J45" s="48" t="n">
         <v>157497.85819</v>
@@ -2537,19 +2643,24 @@
         <v>232950.98623</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>339856.05211</v>
+        <v>339926.52576</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>374432.2699899999</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>374881.8093</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>398053.688</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
-        <v>5244.123</v>
+        <v>5244.123000000001</v>
       </c>
       <c r="D46" s="48" t="n">
         <v>5598.438980000001</v>
@@ -2564,10 +2675,10 @@
         <v>28557.48849</v>
       </c>
       <c r="H46" s="48" t="n">
-        <v>6696.59419</v>
+        <v>6696.594190000001</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>4896.69986</v>
+        <v>4896.699860000001</v>
       </c>
       <c r="J46" s="48" t="n">
         <v>13530.29366</v>
@@ -2581,50 +2692,60 @@
       <c r="M46" s="48" t="n">
         <v>41289.18874000001</v>
       </c>
-    </row>
-    <row r="47" spans="1:13">
+      <c r="N46" s="48" t="n">
+        <v>3730.687</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>48228.64995000001</v>
+        <v>48228.64995</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>56161.62906</v>
+        <v>56161.62905999999</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>94671.86086000002</v>
+        <v>94671.86086</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>35606.77792999999</v>
+        <v>35606.77793</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>65772.74160000001</v>
+        <v>65817.17627</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>124195.88563</v>
+        <v>124666.49171</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>25362.32365000001</v>
+        <v>26787.54822000001</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>42525.24583</v>
+        <v>42523.39232</v>
       </c>
       <c r="K47" s="47" t="n">
         <v>254245.46793</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>573306.3636700001</v>
+        <v>574949.0889</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>647007.3503</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>646216.67389</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>679906.75</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
         <v>13845.14983</v>
@@ -2636,34 +2757,39 @@
         <v>31442.71151</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>84881.66254999998</v>
+        <v>84881.66254999999</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>50170.11484</v>
+        <v>50170.11483999999</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>26336.60453</v>
+        <v>26460.84458</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>38295.09018000001</v>
+        <v>38501.64174</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>41993.87252</v>
+        <v>42004.73881</v>
       </c>
       <c r="K48" s="47" t="n">
         <v>208032.86306</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>51510.75743000001</v>
+        <v>51514.63789</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>58668.72901</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>59651.56286000001</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>133047.417</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
         <v>132.95239</v>
@@ -2690,7 +2816,7 @@
         <v>708.44733</v>
       </c>
       <c r="K49" s="48" t="n">
-        <v>525.31534</v>
+        <v>525.3153400000001</v>
       </c>
       <c r="L49" s="48" t="n">
         <v>100.65485</v>
@@ -2698,11 +2824,16 @@
       <c r="M49" s="48" t="n">
         <v>1244.05201</v>
       </c>
-    </row>
-    <row r="50" spans="1:13">
+      <c r="N49" s="48" t="n">
+        <v>1430.402</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
         <v>13712.19744</v>
@@ -2714,34 +2845,39 @@
         <v>31133.91017</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>84732.76901999998</v>
+        <v>84732.76901999999</v>
       </c>
       <c r="G50" s="48" t="n">
         <v>49884.20384</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>22239.44289</v>
+        <v>22363.68294</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>33890.74251</v>
+        <v>34097.29407</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>41285.42518999999</v>
+        <v>41296.29148000001</v>
       </c>
       <c r="K50" s="48" t="n">
         <v>207507.54772</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>51410.10258</v>
+        <v>51413.98304</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>57424.677</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>58407.51085</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>131617.015</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
         <v>16207.77732</v>
@@ -2759,37 +2895,42 @@
         <v>47095.34804</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>96118.16944</v>
+        <v>96288.29677000002</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>58195.89495</v>
+        <v>59501.38361</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>88744.89207</v>
+        <v>89230.04137000001</v>
       </c>
       <c r="K51" s="47" t="n">
         <v>63675.54614</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>132296.98852</v>
+        <v>132331.6464</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>124959.78176</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>125116.78664</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>107108.819</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
         <v>3775.29325</v>
       </c>
       <c r="D52" s="48" t="n">
-        <v>5828.303079999999</v>
+        <v>5828.30308</v>
       </c>
       <c r="E52" s="48" t="n">
-        <v>7329.213080000001</v>
+        <v>7329.21308</v>
       </c>
       <c r="F52" s="48" t="n">
         <v>8023.360029999999</v>
@@ -2815,11 +2956,16 @@
       <c r="M52" s="48" t="n">
         <v>62876.82352</v>
       </c>
-    </row>
-    <row r="53" spans="1:13">
+      <c r="N52" s="48" t="n">
+        <v>43682.014</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
         <v>3513.26183</v>
@@ -2837,16 +2983,16 @@
         <v>10793.86407</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>8011.154680000001</v>
+        <v>8011.15468</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>9740.052870000001</v>
+        <v>9752.281719999999</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>7501.050359999999</v>
+        <v>7501.05036</v>
       </c>
       <c r="K53" s="48" t="n">
-        <v>4581.897690000001</v>
+        <v>4581.89769</v>
       </c>
       <c r="L53" s="48" t="n">
         <v>4241.74576</v>
@@ -2854,20 +3000,25 @@
       <c r="M53" s="48" t="n">
         <v>17575.38942</v>
       </c>
-    </row>
-    <row r="54" spans="1:13">
+      <c r="N53" s="48" t="n">
+        <v>7001.448</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
-        <v>8919.222239999999</v>
+        <v>8919.222240000001</v>
       </c>
       <c r="D54" s="48" t="n">
         <v>13240.14259</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>38330.17052</v>
+        <v>38330.17051999999</v>
       </c>
       <c r="F54" s="48" t="n">
         <v>27100.78769</v>
@@ -2876,67 +3027,77 @@
         <v>24443.99198</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>74189.06336</v>
+        <v>74359.19069</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>24418.57326</v>
+        <v>25711.83307</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>53884.86158</v>
+        <v>54370.01088000001</v>
       </c>
       <c r="K54" s="48" t="n">
-        <v>33141.49804999999</v>
+        <v>33141.49805</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>86048.14385000001</v>
+        <v>86082.80172999999</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>44507.56882</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>44664.5737</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>56425.357</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>45866.02246000001</v>
+        <v>45866.02246</v>
       </c>
       <c r="D55" s="47" t="n">
         <v>53947.17879999999</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>78274.77417000002</v>
+        <v>78274.77417</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>81928.69035999999</v>
+        <v>81928.69035999998</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>68847.50839999999</v>
+        <v>68891.94306999999</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>54414.32072</v>
+        <v>54839.03952</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>5461.518880000002</v>
+        <v>5787.806349999994</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>-4225.773719999999</v>
+        <v>-4701.910239999997</v>
       </c>
       <c r="K55" s="47" t="n">
-        <v>398602.7848499999</v>
+        <v>398602.78485</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>492520.13258</v>
+        <v>494132.08039</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>580716.2975499999</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>580751.45011</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>705845.348</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
         <v>9366.997170000001</v>
@@ -2954,28 +3115,33 @@
         <v>21125.61372</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>23764.23332</v>
+        <v>23772.06559</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>35494.7086</v>
+        <v>36786.95545</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>45564.70841</v>
+        <v>45564.82161</v>
       </c>
       <c r="K56" s="47" t="n">
-        <v>59166.72857</v>
+        <v>59166.72856999999</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>83246.68421000001</v>
+        <v>83261.33252</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>116615.64464</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>116765.27446</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>101418.191</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
         <v>36499.02529</v>
@@ -2990,28 +3156,31 @@
         <v>55405.99247</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>47721.89468</v>
+        <v>47766.32935</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>30650.08739999999</v>
+        <v>31066.97393</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>-30033.18972</v>
+        <v>-30999.14909999999</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>-49790.48213</v>
+        <v>-50266.73185</v>
       </c>
       <c r="K57" s="47" t="n">
         <v>339436.05628</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>409273.4483699999</v>
+        <v>410870.74787</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>464100.6529099999</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>463986.17565</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>604427.157</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,11 +3194,14 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
         <v>993</v>
@@ -3044,28 +3216,31 @@
         <v>1082</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>1077</v>
+        <v>1079</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>1082</v>
+        <v>1092</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>1072</v>
+        <v>1088</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>1144</v>
+        <v>1149</v>
       </c>
       <c r="K59" s="35" t="n">
         <v>1193</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>1192</v>
+        <v>1226</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>1179</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>1243</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>1315</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>